--- a/hardware/rev2/assembly/ism_bom/cariboulite_r2.5_ism_bom.xlsx
+++ b/hardware/rev2/assembly/ism_bom/cariboulite_r2.5_ism_bom.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D8E40B-D21D-456F-9673-04661538730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\cariboulite_hardware\src\manufacturing\rev2\assembly\ism_bom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4195AED2-D661-4FD3-BE38-0418B7BE6C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{5112D7D8-4C6B-4386-9BEF-0A5E5E30E722}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{647D01EE-9DA4-4802-8746-06A7D91400E9}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-CaribouLite(Caribo" sheetId="1" r:id="rId1"/>
@@ -205,7 +210,7 @@
     <t>D3, D4</t>
   </si>
   <si>
-    <t>LXES15AAA1-153</t>
+    <t>0402ESDB-MLP1</t>
   </si>
   <si>
     <t>ESD Suppressors / TVS Diodes ESD Protection Device, 0402, Bidirectional, 4V working, 15V breakdown, 0.05pF Cd</t>
@@ -867,20 +872,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A03940E-302B-421B-A4D1-F4E2442A1503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D359B93-5BD5-492F-8529-A4C806C26BB7}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1713,6 +1720,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>